--- a/test.xlsx
+++ b/test.xlsx
@@ -851,45 +851,72 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/36ad2e95df90bcb6d084d88c1bc9a3ae.jpeg</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/7cd9db72d130495bab5e6218880676bf.jpeg</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/25d2b83433bf42ac2869534f0866841c.jpeg</v>
+      </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/d14fc4bc3294c3c4e82dfb6be3d1e814.jpeg</v>
+      </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/6f8d5d5bff1c935d5faacf0e326d0d43.jpeg</v>
+      </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/64f200d4063b86129680fc75fdbfbdfa.jpeg</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/86b5032a1a9dfd99b0fc4c64fad29513.jpeg</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/3cd39cbba197bc591289ed85c5a8a36c.jpeg</v>
+      </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B11" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/745582c541dcf94e1904770f1cb9cc32.jpeg</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -923,50 +923,80 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/ed0724dbb0fdfdb833ad9a34ded078b2.jpeg</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/5f74c4d16a7861748d022d48bf481f6f.jpeg</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/b83bc9f6df039f239e5228b854ffe9d6.jpeg</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/d23207b64b29768ac614fe8113bc4924.jpeg</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B16" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/92e8109d99fe5c609773fce18597aaa9.jpeg</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B17" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/81780dfd1eb8ba5648f952f2ec11183c.jpeg</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B18" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/5e0000419a7953b0345b8829e3ca9a7a.jpeg</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B19" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/8669667c236ce7a6a9e71b323c27be1d.jpeg</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B20" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/b1d39def054cbff52420df22b34d29f3.jpeg</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="B21" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/d9b5d0d8f8ccfa70961962746e56cf84.jpeg</v>
       </c>
     </row>
     <row r="22" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1003,50 +1003,80 @@
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B22" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/609e364f3ea9abef5bfcb76595ec9ac6.jpeg</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B23" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/76b7fb4e8768486dee4b9cdc374306cd.jpeg</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B24" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/6a729a7d6a548c59c537510a872ecb45.jpeg</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B25" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/8f762c7c68011919f39f191267e4c996.jpeg</v>
+      </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B26" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/6626fb9fa0d18e2bf17cecfc94bf90d6.jpeg</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B27" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/fa126e40f93485011d5fe407e4940719.jpeg</v>
+      </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B28" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/3b917fc087484d9c7828f50ab2652f9e.jpeg</v>
+      </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B29" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/66a0bfbc0547ef16d6d9490dd03655eb.jpeg</v>
+      </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B30" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/3ebb55bd40bb24b6386326067f15a9e7.jpeg</v>
+      </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="B31" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/74280e2624466f0b5e2f9a10ce976951.jpeg</v>
       </c>
     </row>
     <row r="32" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1083,50 +1083,80 @@
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B32" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/5dc9c19948636d1a6eb0673dbb5afa08.jpeg</v>
+      </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B33" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/041f01a3dc9528da263971876a0167ee.jpeg</v>
+      </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B34" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/e39300375d93d49e7e87b2af3f8ff692.jpeg</v>
+      </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B35" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/7346e7a61c80a214cdfd66624ced8a93.jpeg</v>
+      </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B36" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/d5aecfa91daca95a1bb57a10685fd46a.jpeg</v>
+      </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B37" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/0e6e7d6626d49904c12466cb7dfc56c3.jpeg</v>
+      </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B38" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/34754559464d52d2fa10817b57da6915.jpeg</v>
+      </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B39" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/ecf39317980784c9687b17d0d8fa06fd.jpeg</v>
+      </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B40" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/a64e3687444148477fd97b7d957d02fa.jpeg</v>
+      </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="B41" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/63fe67f8238b8591910e7946d46d5c1e.jpeg</v>
       </c>
     </row>
     <row r="42" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1163,50 +1163,80 @@
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B42" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/f85826ceaaab87a3660871f1a5b3e94c.jpeg</v>
+      </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B43" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/b45b0cbce7859dedc65d1bdeda47eecc.jpeg</v>
+      </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B44" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/eb468fa9b530e43433eb910819723135.jpeg</v>
+      </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B45" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/dce40f3de9827061623e056e6d1aa65f.jpeg</v>
+      </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B46" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/fa4b121ae7365736ec48ed61e7108359.jpeg</v>
+      </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B47" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/1b7f241e4e597f89841cc1d36afb82b2.jpeg</v>
+      </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B48" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/43ccca2337116c486a5ef9b8729e6b20.jpeg</v>
+      </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B49" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/a18946b441166f6f4459c3a7e70fd78d.jpeg</v>
+      </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B50" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/fed2183692ffed7930764fabc26457d3.jpeg</v>
+      </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="B51" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/ec6fdc6e3e638cd6526f8b580df08ad4.jpeg</v>
       </c>
     </row>
     <row r="52" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1243,11 +1243,17 @@
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B52" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/e6f7474de8f70a63afc8b3e28e9c6231.jpeg</v>
+      </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B53" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/9c5d436e65c0113db4db77216332aff8.jpeg</v>
+      </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
@@ -1258,35 +1264,56 @@
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B55" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/ef68dd4ad018c714506d25363bb788fe.jpeg</v>
+      </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B56" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/30e3fab25986a8328fb127358db4ccd9.jpeg</v>
+      </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B57" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/9516cf6f9cd70dc0c0453295f5586587.jpeg</v>
+      </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="B58" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/c310253f47054d23317724fd23cfd5e2.jpeg</v>
+      </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="B59" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/1050773c564bded3b9ba918cf52f16f7.jpeg</v>
+      </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B60" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/274d0cb6e069a768a3dded6dce715f02.jpeg</v>
+      </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="B61" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/44994c00efa98b11af44ef3c3dc84539.jpeg</v>
       </c>
     </row>
     <row r="62" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1320,50 +1320,80 @@
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="B62" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/19dc07d007b67d2fcb31d4c90ded240f.jpeg</v>
+      </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="B63" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/57296b72b7fe33917e873340b41a2703.jpeg</v>
+      </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="B64" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/c85b9dbdfc63290d03ecf3697e396262.jpeg</v>
+      </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="B65" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/7974d9c2db095b94946321545d0ff309.jpeg</v>
+      </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="B66" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/8e113f2cc447cb88385d65d27663b9b3.jpeg</v>
+      </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="B67" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/4957fd9abcd848c194493cc2591665a1.jpeg</v>
+      </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B68" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/1d86d4231e8453dc0a0d094509339a57.jpeg</v>
+      </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="B69" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/968955aa5bb17ee933f788feea76919e.jpeg</v>
+      </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="B70" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/1c488cddc21dd7537a130e841bebf8d5.jpeg</v>
+      </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="B71" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/f47696135672772ef6fa706c9b5e3626.jpeg</v>
       </c>
     </row>
     <row r="72" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1400,50 +1400,80 @@
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="B72" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/94398400dfbbcb0bd95ee86afb598393.jpeg</v>
+      </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="B73" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/f75e825f55c40abe568414fcfe67148d.jpeg</v>
+      </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="B74" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/f260529fa9a25f27b48354780572a78c.jpeg</v>
+      </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="B75" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/3d8efdf6d67b28ad5d494dd5009178cc.jpeg</v>
+      </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="B76" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/6a7e10e980610e70f3709bbaced7264f.jpeg</v>
+      </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="B77" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/c71d08765e269d7e6c5b69a189b24895.jpeg</v>
+      </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="B78" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/b57f8fb706c26e9cdfb7086599e536b4.jpeg</v>
+      </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="B79" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/33c4ae171864e7c2f0d8757ebf8b18c8.jpeg</v>
+      </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="B80" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/d8c248c50767c16177fca185f4a7e2cf.jpeg</v>
+      </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="2" t="s">
         <v>79</v>
+      </c>
+      <c r="B81" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/baeef20f651f693154bab7bba31eba72.jpeg</v>
       </c>
     </row>
     <row r="82" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1480,50 +1480,80 @@
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="B82" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/346408780d4909ebf7c38a8a53fe3945.jpeg</v>
+      </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="B83" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/190e562ed365c01a64817442a59dec2d.jpeg</v>
+      </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="B84" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/4b455dd7ef0d29aa8636164146cfd485.jpeg</v>
+      </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="B85" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/172657bb6ecbda6f519a0fd0a42852e7.jpeg</v>
+      </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="B86" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/4093723e266ced32f2ff61fcba0652d6.jpeg</v>
+      </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="B87" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/9e7317e1cc03ce7c8e24701df47f2627.jpeg</v>
+      </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="B88" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/e50759ef02c902a55109a83f1d7e3606.jpeg</v>
+      </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="B89" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/fddba340d9c183b4a3c855c712577518.jpeg</v>
+      </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="B90" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/399a5360d13c22d8c78d45573246a274.jpeg</v>
+      </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="B91" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/0142f86fd43bb4a09dda448b32f4620c.jpeg</v>
       </c>
     </row>
     <row r="92" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1560,50 +1560,80 @@
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="B92" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/679e1a41b29b29b03eba413627d5a0af.jpeg</v>
+      </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="B93" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/0a5b39aa6c7fa1b6bfb1b983ad3f638a.jpeg</v>
+      </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="B94" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/277dc0c8c68bbfca41629d6a5a31344e.jpeg</v>
+      </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="B95" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/13cb25799138227c896c379eb5d1a062.jpeg</v>
+      </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="B96" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/03a972244a74397fe2987416e1925941.jpeg</v>
+      </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="B97" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/f2c8e26f87a0a69044ab78ae9a61e80b.jpeg</v>
+      </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="B98" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/537bce4e1f6006c149f5492e4c2af304.jpeg</v>
+      </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="B99" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/905cdf5d2ac34698c3c2fb938c146981.jpeg</v>
+      </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="B100" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/ab2299a7aa0ef6d90791e576535fe05b.jpeg</v>
+      </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="B101" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/9a170f592c67a8540e42fecd47db16fe.jpeg</v>
       </c>
     </row>
     <row r="102" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1640,50 +1640,80 @@
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="B102" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/98afe753b0e4e01c58d3c0983a88bbbf.jpeg</v>
+      </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="B103" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/bb353fc00e28bac84aa94741a52768ea.jpeg</v>
+      </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="B104" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/9e91919ecf9565046f0090f8b9226b80.jpeg</v>
+      </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="B105" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/5d83fcdbcf4e43c066be42ef997bf56d.jpeg</v>
+      </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="B106" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/921a7370f031f6248ff7ca5513a9e8bf.jpeg</v>
+      </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="B107" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/466abef48463d552a4b8a8cfac57085f.jpeg</v>
+      </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="B108" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/25a6c73cc5899a62937a4845cd8111dd.jpeg</v>
+      </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="B109" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/dc4953630e544b3b8d42ec728527771c.jpeg</v>
+      </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="B110" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/909c98e56c3825abca8b3db0c990ccaf.jpeg</v>
+      </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="2" t="s">
         <v>109</v>
+      </c>
+      <c r="B111" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/7543cc3f22bfa857b06bdafb6275c64b.jpeg</v>
       </c>
     </row>
     <row r="112" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1720,50 +1720,80 @@
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="B112" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/899c0d1efecb6568bf636f2bdc1b1d05.jpeg</v>
+      </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="B113" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/eb075739a6a5644d3f83bbe1ccaa9f6a.jpeg</v>
+      </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="B114" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/ac34d6557d799436447a0590fc1e43b3.jpeg</v>
+      </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="B115" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/0f376f9a09fa626baf6336cf1f4ea8f1.jpeg</v>
+      </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="B116" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/896f1878d8bf90489aa8ab4a811ceebf.jpeg</v>
+      </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="B117" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/02fb969ab341bcf58cc7e147acffd6d5.jpeg</v>
+      </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="B118" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/1c413ffab2d4c068c96d83e16a79ea78.jpeg</v>
+      </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="B119" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/f7528373373636d3990a3809bb57ba66.jpeg</v>
+      </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="B120" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/8a1f506311869bee2081e26ba44b4c11.jpeg</v>
+      </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="B121" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/66f55700614b5092bd1c5cc24a86042f.jpeg</v>
       </c>
     </row>
     <row r="122" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1800,50 +1800,80 @@
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="B122" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/d45abce0965dfc771febad9c39cdfa6b.jpeg</v>
+      </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="B123" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/bee07e624bafdbf42c112449fa17c5e7.jpeg</v>
+      </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="B124" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/de6ce1640a7a7869c1cabfeb9c5bac7b.jpeg</v>
+      </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="B125" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/35a400e9a29ef8dc0d748129887e50bf.jpeg</v>
+      </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="B126" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/9ac15416c6f8b64028adb19ef8a4cf44.jpeg</v>
+      </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="B127" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/4b47050e51172809b24ad00ce10de1a8.jpeg</v>
+      </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="B128" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/bf122493199d81969cb5df4349b36806.jpeg</v>
+      </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="B129" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/627353416025054c7045ca9be6fce679.jpeg</v>
+      </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="B130" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/9ab2e93c351eac84484cc9cac9b4e2f2.jpeg</v>
+      </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="2" t="s">
         <v>129</v>
+      </c>
+      <c r="B131" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/7b62c406d4833e516f2bd8552aab5884.jpeg</v>
       </c>
     </row>
     <row r="132" spans="1:1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1880,10 +1880,16 @@
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="B132" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/78020b3b8d834f6d66ba844fd030a2ef.jpeg</v>
+      </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="2" t="s">
         <v>131</v>
+      </c>
+      <c r="B133" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/81d30b487fd278e8131cf25e3b4c3126.jpeg</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -851,95 +851,152 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/36ad2e95df90bcb6d084d88c1bc9a3ae.jpeg</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/7cd9db72d130495bab5e6218880676bf.jpeg</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/25d2b83433bf42ac2869534f0866841c.jpeg</v>
+      </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/d14fc4bc3294c3c4e82dfb6be3d1e814.jpeg</v>
+      </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/6f8d5d5bff1c935d5faacf0e326d0d43.jpeg</v>
+      </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/64f200d4063b86129680fc75fdbfbdfa.jpeg</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/86b5032a1a9dfd99b0fc4c64fad29513.jpeg</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/3cd39cbba197bc591289ed85c5a8a36c.jpeg</v>
+      </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/745582c541dcf94e1904770f1cb9cc32.jpeg</v>
+      </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/ed0724dbb0fdfdb833ad9a34ded078b2.jpeg</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/5f74c4d16a7861748d022d48bf481f6f.jpeg</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/b83bc9f6df039f239e5228b854ffe9d6.jpeg</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/d23207b64b29768ac614fe8113bc4924.jpeg</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B16" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/92e8109d99fe5c609773fce18597aaa9.jpeg</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B17" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/81780dfd1eb8ba5648f952f2ec11183c.jpeg</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B18" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/5e0000419a7953b0345b8829e3ca9a7a.jpeg</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B19" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/8669667c236ce7a6a9e71b323c27be1d.jpeg</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B20" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/b1d39def054cbff52420df22b34d29f3.jpeg</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="B21" t="str">
+        <v>https://raw.githubusercontent.com/yohaohge/product_img/main/d9b5d0d8f8ccfa70961962746e56cf84.jpeg</v>
       </c>
     </row>
     <row r="22" spans="1:1">
